--- a/data/input/Train1500-1502_new.xlsx
+++ b/data/input/Train1500-1502_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="460" windowWidth="32480" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="1220" yWindow="460" windowWidth="32380" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -9659,8 +9659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3213" zoomScale="148" workbookViewId="0">
-      <selection activeCell="A3241" sqref="A3241"/>
+    <sheetView tabSelected="1" topLeftCell="A2870" zoomScale="148" workbookViewId="0">
+      <selection activeCell="A3205" sqref="A3205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -52060,7 +52060,7 @@
     </row>
     <row r="2849" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2849" s="3" t="s">
-        <v>1431</v>
+        <v>1867</v>
       </c>
       <c r="B2849" s="3" t="s">
         <v>77</v>
@@ -52201,7 +52201,7 @@
         <v>77</v>
       </c>
       <c r="C2858" s="3" t="s">
-        <v>1440</v>
+        <v>687</v>
       </c>
       <c r="D2858" s="3" t="s">
         <v>6</v>
